--- a/药性.xlsx
+++ b/药性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21942" windowHeight="9917"/>
+    <workbookView windowWidth="17374" windowHeight="9917"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="604">
   <si>
     <t>药物</t>
   </si>
@@ -1802,6 +1802,30 @@
   </si>
   <si>
     <t>毛莨</t>
+  </si>
+  <si>
+    <t>黄酒</t>
+  </si>
+  <si>
+    <t>冬瓜仁</t>
+  </si>
+  <si>
+    <t>守宫</t>
+  </si>
+  <si>
+    <t>蚕砂</t>
+  </si>
+  <si>
+    <t>侧柏炭</t>
+  </si>
+  <si>
+    <t>红藤</t>
+  </si>
+  <si>
+    <t>冬青</t>
+  </si>
+  <si>
+    <t>两头尖</t>
   </si>
 </sst>
 </file>
@@ -1809,9 +1833,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1831,8 +1855,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1845,9 +1870,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1861,23 +1908,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1888,6 +1935,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1915,14 +1985,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1932,44 +1994,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1984,13 +2008,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2008,7 +2050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,19 +2062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,43 +2074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2098,25 +2098,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,13 +2158,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2146,25 +2188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2247,15 +2271,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2267,6 +2282,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2296,10 +2320,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2308,133 +2332,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2514,13 +2538,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B590" totalsRowShown="0">
-  <autoFilter ref="A1:B590"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B599" totalsRowShown="0">
+  <autoFilter ref="A1:B599"/>
   <tableColumns count="2">
     <tableColumn id="1" name="药物"/>
     <tableColumn id="2" name="药性"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2809,10 +2833,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B590"/>
+  <dimension ref="A1:B599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="D587" sqref="D587"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="1"/>
@@ -7537,8 +7561,80 @@
         <v>3</v>
       </c>
     </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>596</v>
+      </c>
+      <c r="B591" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>597</v>
+      </c>
+      <c r="B592" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>598</v>
+      </c>
+      <c r="B593" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>599</v>
+      </c>
+      <c r="B594" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>600</v>
+      </c>
+      <c r="B595" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>601</v>
+      </c>
+      <c r="B596" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>367</v>
+      </c>
+      <c r="B597" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>602</v>
+      </c>
+      <c r="B598" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>603</v>
+      </c>
+      <c r="B599" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B590">
+  <conditionalFormatting sqref="A1:B599">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
